--- a/7/2/2/2/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Serie</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7629,49 +7632,49 @@
         <v>103</v>
       </c>
       <c r="B74">
-        <v>8068</v>
+        <v>7699</v>
       </c>
       <c r="C74">
-        <v>1530</v>
+        <v>1036</v>
       </c>
       <c r="D74">
-        <v>2132</v>
+        <v>1936</v>
       </c>
       <c r="E74">
-        <v>-602</v>
+        <v>-901</v>
       </c>
       <c r="F74">
-        <v>-2026</v>
+        <v>-1380</v>
       </c>
       <c r="G74">
         <v>109</v>
       </c>
       <c r="H74">
-        <v>-2135</v>
+        <v>-1488</v>
       </c>
       <c r="I74">
         <v>466</v>
       </c>
       <c r="J74">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="M74">
-        <v>2016</v>
+        <v>3253</v>
       </c>
       <c r="N74">
-        <v>720</v>
+        <v>1924</v>
       </c>
       <c r="O74">
-        <v>-928</v>
+        <v>-891</v>
       </c>
       <c r="P74">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="Q74">
         <v>-2</v>
@@ -7680,43 +7683,138 @@
         <v>-2</v>
       </c>
       <c r="S74">
-        <v>5780</v>
+        <v>4203</v>
       </c>
       <c r="T74">
-        <v>-3263</v>
+        <v>-3683</v>
       </c>
       <c r="U74">
-        <v>11331</v>
+        <v>11382</v>
       </c>
       <c r="V74">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="Y74">
-        <v>1882</v>
+        <v>1696</v>
       </c>
       <c r="Z74">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AA74">
-        <v>1721</v>
+        <v>1502</v>
       </c>
       <c r="AB74">
-        <v>2598</v>
+        <v>2963</v>
       </c>
       <c r="AC74">
         <v>8</v>
       </c>
       <c r="AD74">
-        <v>2590</v>
+        <v>2954</v>
       </c>
       <c r="AE74">
-        <v>6856</v>
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>3023</v>
+      </c>
+      <c r="C75">
+        <v>166</v>
+      </c>
+      <c r="D75">
+        <v>2307</v>
+      </c>
+      <c r="E75">
+        <v>-2142</v>
+      </c>
+      <c r="F75">
+        <v>2521</v>
+      </c>
+      <c r="G75">
+        <v>1237</v>
+      </c>
+      <c r="H75">
+        <v>1284</v>
+      </c>
+      <c r="I75">
+        <v>287</v>
+      </c>
+      <c r="J75">
+        <v>56</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>56</v>
+      </c>
+      <c r="M75">
+        <v>-910</v>
+      </c>
+      <c r="N75">
+        <v>-283</v>
+      </c>
+      <c r="O75">
+        <v>-480</v>
+      </c>
+      <c r="P75">
+        <v>-146</v>
+      </c>
+      <c r="Q75">
+        <v>-18</v>
+      </c>
+      <c r="R75">
+        <v>-18</v>
+      </c>
+      <c r="S75">
+        <v>921</v>
+      </c>
+      <c r="T75">
+        <v>-11</v>
+      </c>
+      <c r="U75">
+        <v>3035</v>
+      </c>
+      <c r="V75">
+        <v>199</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>199</v>
+      </c>
+      <c r="Y75">
+        <v>303</v>
+      </c>
+      <c r="Z75">
+        <v>50</v>
+      </c>
+      <c r="AA75">
+        <v>253</v>
+      </c>
+      <c r="AB75">
+        <v>1203</v>
+      </c>
+      <c r="AC75">
+        <v>15</v>
+      </c>
+      <c r="AD75">
+        <v>1188</v>
+      </c>
+      <c r="AE75">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
